--- a/PROJECT/PDF1/ВТБ 11.05.23.xlsx
+++ b/PROJECT/PDF1/ВТБ 11.05.23.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\PDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\PDF1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9252316B-F964-4250-BAB9-90FF95B3E287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E13293-75B6-4CC9-8CBA-38DF5DBEF158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="5550" windowWidth="15675" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$M$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$1:$M$232</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2285,39 +2285,39 @@
   <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -2336,29 +2336,29 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4">
         <v>56351</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>16</v>
@@ -2377,29 +2377,29 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
         <v>56470</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>16</v>
@@ -2418,29 +2418,29 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
         <v>287099</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>16</v>
@@ -2459,29 +2459,29 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
         <v>287101</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="5">
         <v>175</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>16</v>
@@ -2500,29 +2500,29 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
         <v>287100</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>5375</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>16</v>
@@ -2541,29 +2541,29 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
         <v>55674</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>500000</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>16</v>
@@ -2582,29 +2582,29 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
         <v>55675</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>600000</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
@@ -2623,29 +2623,29 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4">
         <v>55676</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>800000</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>16</v>
@@ -2664,29 +2664,29 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
         <v>55677</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>1200000</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
@@ -2705,29 +2705,29 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
         <v>55678</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>1400000</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>16</v>
@@ -2746,29 +2746,29 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
         <v>55679</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>1700000</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>16</v>
@@ -2787,29 +2787,29 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
         <v>55680</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>2500000</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>16</v>
@@ -2828,29 +2828,29 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
         <v>55682</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>3000000</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>16</v>
@@ -2869,29 +2869,29 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
         <v>55681</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>3000000</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>16</v>
@@ -2910,29 +2910,29 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
         <v>55683</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>3500000</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>16</v>
@@ -2951,29 +2951,29 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
         <v>55684</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>6000000</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>16</v>
@@ -2992,29 +2992,29 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4">
         <v>55685</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>6700000</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>16</v>
@@ -3033,29 +3033,29 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4">
         <v>55686</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>7400000</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>16</v>
@@ -3074,29 +3074,29 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4">
         <v>55687</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>8000000</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>16</v>
@@ -3115,29 +3115,29 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4">
         <v>55688</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>9000000</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>16</v>
@@ -3156,29 +3156,29 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4">
         <v>55689</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>15000000</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>16</v>
@@ -3197,29 +3197,29 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="4">
         <v>55690</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>22000000</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>16</v>
@@ -3238,29 +3238,29 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
         <v>55692</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C24" s="3">
         <v>23000000</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>16</v>
@@ -3279,29 +3279,29 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4">
         <v>55691</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C25" s="3">
         <v>23000000</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>16</v>
@@ -3320,29 +3320,29 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="4">
         <v>55693</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C26" s="3">
         <v>23342888.620000001</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>16</v>
@@ -3361,29 +3361,29 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4">
         <v>55694</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C27" s="3">
         <v>30000000</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>16</v>
@@ -3402,29 +3402,29 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4">
         <v>55695</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>30200000</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>16</v>
@@ -3443,29 +3443,29 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4">
         <v>55696</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>40000000</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>16</v>
@@ -3484,29 +3484,29 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="4">
         <v>55697</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>43200000</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>16</v>
@@ -3525,29 +3525,29 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="4">
         <v>55698</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>44000000</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>16</v>
@@ -3566,29 +3566,29 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="4">
         <v>55699</v>
       </c>
-      <c r="B32" s="3">
+      <c r="C32" s="3">
         <v>50000000</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>16</v>
@@ -3607,29 +3607,29 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="4">
         <v>55700</v>
       </c>
-      <c r="B33" s="3">
+      <c r="C33" s="3">
         <v>75000000</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>16</v>
@@ -3648,29 +3648,29 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="4">
         <v>55701</v>
       </c>
-      <c r="B34" s="3">
+      <c r="C34" s="3">
         <v>136000000</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>16</v>
@@ -3689,29 +3689,29 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4">
         <v>55702</v>
       </c>
-      <c r="B35" s="3">
+      <c r="C35" s="3">
         <v>170000000</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>16</v>
@@ -3730,29 +3730,29 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="4">
         <v>55703</v>
       </c>
-      <c r="B36" s="3">
+      <c r="C36" s="3">
         <v>212812856.87</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>16</v>
@@ -3771,29 +3771,29 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="4">
         <v>55704</v>
       </c>
-      <c r="B37" s="3">
+      <c r="C37" s="3">
         <v>295000000</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>16</v>
@@ -3812,29 +3812,29 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="4">
         <v>55705</v>
       </c>
-      <c r="B38" s="3">
+      <c r="C38" s="3">
         <v>350000000</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>16</v>
@@ -3853,29 +3853,29 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="4">
         <v>55706</v>
       </c>
-      <c r="B39" s="3">
+      <c r="C39" s="3">
         <v>500000000</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>16</v>
@@ -3894,29 +3894,29 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="4">
         <v>55707</v>
       </c>
-      <c r="B40" s="3">
+      <c r="C40" s="3">
         <v>16194463.4</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>16</v>
@@ -3935,29 +3935,29 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="4">
         <v>55708</v>
       </c>
-      <c r="B41" s="3">
+      <c r="C41" s="3">
         <v>80000000</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>16</v>
@@ -3976,29 +3976,29 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="4">
         <v>55709</v>
       </c>
-      <c r="B42" s="3">
+      <c r="C42" s="3">
         <v>98433043.900000006</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>16</v>
@@ -4017,29 +4017,29 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="4">
         <v>55939</v>
       </c>
-      <c r="B43" s="3">
+      <c r="C43" s="3">
         <v>1354850</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>16</v>
@@ -4058,29 +4058,29 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="4">
         <v>55962</v>
       </c>
-      <c r="B44" s="6">
+      <c r="C44" s="6">
         <v>2989874.16</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>16</v>
@@ -4099,29 +4099,29 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="4">
         <v>55964</v>
       </c>
-      <c r="B45" s="3">
+      <c r="C45" s="3">
         <v>3042900</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>16</v>
@@ -4140,29 +4140,29 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="4">
         <v>55843</v>
       </c>
-      <c r="B46" s="5">
+      <c r="C46" s="5">
         <v>684.36</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>16</v>
@@ -4181,29 +4181,29 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="4">
         <v>55846</v>
       </c>
-      <c r="B47" s="3">
+      <c r="C47" s="3">
         <v>1048.44</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>16</v>
@@ -4222,29 +4222,29 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="4">
         <v>55847</v>
       </c>
-      <c r="B48" s="3">
+      <c r="C48" s="3">
         <v>4063.68</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>16</v>
@@ -4263,29 +4263,29 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="4">
         <v>55848</v>
       </c>
-      <c r="B49" s="3">
+      <c r="C49" s="3">
         <v>5390.98</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>16</v>
@@ -4304,29 +4304,29 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4">
         <v>55849</v>
       </c>
-      <c r="B50" s="3">
+      <c r="C50" s="3">
         <v>6290.64</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>16</v>
@@ -4345,29 +4345,29 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="4">
         <v>55851</v>
       </c>
-      <c r="B51" s="3">
+      <c r="C51" s="3">
         <v>6878.52</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>16</v>
@@ -4386,29 +4386,29 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="4">
         <v>55850</v>
       </c>
-      <c r="B52" s="3">
+      <c r="C52" s="3">
         <v>6878.52</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>16</v>
@@ -4427,29 +4427,29 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="4">
         <v>55853</v>
       </c>
-      <c r="B53" s="3">
+      <c r="C53" s="3">
         <v>13494.36</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>16</v>
@@ -4468,29 +4468,29 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="4">
         <v>55854</v>
       </c>
-      <c r="B54" s="3">
+      <c r="C54" s="3">
         <v>15726.6</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>16</v>
@@ -4509,29 +4509,29 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="4">
         <v>55855</v>
       </c>
-      <c r="B55" s="3">
+      <c r="C55" s="3">
         <v>16591.68</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>16</v>
@@ -4550,29 +4550,29 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="4">
         <v>55856</v>
       </c>
-      <c r="B56" s="3">
+      <c r="C56" s="3">
         <v>17402.04</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>16</v>
@@ -4591,29 +4591,29 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="4">
         <v>55857</v>
       </c>
-      <c r="B57" s="3">
+      <c r="C57" s="3">
         <v>21877.26</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>16</v>
@@ -4632,29 +4632,29 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="4">
         <v>55858</v>
       </c>
-      <c r="B58" s="3">
+      <c r="C58" s="3">
         <v>22017.24</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>16</v>
@@ -4673,29 +4673,29 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="4">
         <v>55859</v>
       </c>
-      <c r="B59" s="3">
+      <c r="C59" s="3">
         <v>25162.560000000001</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>16</v>
@@ -4714,29 +4714,29 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="4">
         <v>55860</v>
       </c>
-      <c r="B60" s="3">
+      <c r="C60" s="3">
         <v>25845.119999999999</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>16</v>
@@ -4755,29 +4755,29 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="4">
         <v>55861</v>
       </c>
-      <c r="B61" s="3">
+      <c r="C61" s="3">
         <v>36346.32</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>16</v>
@@ -4796,29 +4796,29 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="4">
         <v>55862</v>
       </c>
-      <c r="B62" s="3">
+      <c r="C62" s="3">
         <v>58972.08</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>16</v>
@@ -4837,29 +4837,29 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="4">
         <v>55863</v>
       </c>
-      <c r="B63" s="3">
+      <c r="C63" s="3">
         <v>59500.08</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>16</v>
@@ -4878,29 +4878,29 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="4">
         <v>55864</v>
       </c>
-      <c r="B64" s="3">
+      <c r="C64" s="3">
         <v>94765.62</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>16</v>
@@ -4919,29 +4919,29 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="4">
         <v>55866</v>
       </c>
-      <c r="B65" s="3">
+      <c r="C65" s="3">
         <v>215870.64</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>16</v>
@@ -4960,29 +4960,29 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="4">
         <v>55867</v>
       </c>
-      <c r="B66" s="3">
+      <c r="C66" s="3">
         <v>330229.14</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>16</v>
@@ -5001,29 +5001,29 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="4">
         <v>55868</v>
       </c>
-      <c r="B67" s="3">
+      <c r="C67" s="3">
         <v>372435.34</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>16</v>
@@ -5042,29 +5042,29 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="4">
         <v>55869</v>
       </c>
-      <c r="B68" s="3">
+      <c r="C68" s="3">
         <v>379886.17</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>16</v>
@@ -5083,29 +5083,29 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="4">
         <v>55870</v>
       </c>
-      <c r="B69" s="3">
+      <c r="C69" s="3">
         <v>416153.59999999998</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>16</v>
@@ -5124,29 +5124,29 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="4">
         <v>55871</v>
       </c>
-      <c r="B70" s="3">
+      <c r="C70" s="3">
         <v>432876.46</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>16</v>
@@ -5165,29 +5165,29 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="4">
         <v>55872</v>
       </c>
-      <c r="B71" s="3">
+      <c r="C71" s="3">
         <v>459155.12</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>16</v>
@@ -5206,29 +5206,29 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="4">
         <v>55873</v>
       </c>
-      <c r="B72" s="3">
+      <c r="C72" s="3">
         <v>485081.88</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>16</v>
@@ -5247,29 +5247,29 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="4">
         <v>55874</v>
       </c>
-      <c r="B73" s="3">
+      <c r="C73" s="3">
         <v>508293.72</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>16</v>
@@ -5288,29 +5288,29 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="4">
         <v>55875</v>
       </c>
-      <c r="B74" s="3">
+      <c r="C74" s="3">
         <v>512758.99</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>16</v>
@@ -5329,29 +5329,29 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="4">
         <v>55876</v>
       </c>
-      <c r="B75" s="3">
+      <c r="C75" s="3">
         <v>534972.76</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G75" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>16</v>
@@ -5370,29 +5370,29 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="4">
         <v>55877</v>
       </c>
-      <c r="B76" s="3">
+      <c r="C76" s="3">
         <v>658702.80000000005</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G76" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>16</v>
@@ -5411,29 +5411,29 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="4">
         <v>55878</v>
       </c>
-      <c r="B77" s="3">
+      <c r="C77" s="3">
         <v>661993.03</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G77" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>16</v>
@@ -5452,29 +5452,29 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="4">
         <v>55879</v>
       </c>
-      <c r="B78" s="3">
+      <c r="C78" s="3">
         <v>728261.63</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>16</v>
@@ -5493,29 +5493,29 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="4">
         <v>55880</v>
       </c>
-      <c r="B79" s="3">
+      <c r="C79" s="3">
         <v>774599.45</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G79" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>16</v>
@@ -5534,29 +5534,29 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="4">
         <v>55881</v>
       </c>
-      <c r="B80" s="3">
+      <c r="C80" s="3">
         <v>780880.04</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>16</v>
@@ -5575,29 +5575,29 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="4">
         <v>55882</v>
       </c>
-      <c r="B81" s="3">
+      <c r="C81" s="3">
         <v>789189.84</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>16</v>
@@ -5616,29 +5616,29 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="4">
         <v>55740</v>
       </c>
-      <c r="B82" s="3">
+      <c r="C82" s="3">
         <v>796456.51</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G82" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>16</v>
@@ -5657,29 +5657,29 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="4">
         <v>55883</v>
       </c>
-      <c r="B83" s="3">
+      <c r="C83" s="3">
         <v>829237.79</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>16</v>
@@ -5698,29 +5698,29 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="4">
         <v>55884</v>
       </c>
-      <c r="B84" s="3">
+      <c r="C84" s="3">
         <v>846898.21</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>16</v>
@@ -5739,29 +5739,29 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="4">
         <v>55934</v>
       </c>
-      <c r="B85" s="3">
+      <c r="C85" s="3">
         <v>1092000</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>16</v>
@@ -5780,29 +5780,29 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="4">
         <v>55936</v>
       </c>
-      <c r="B86" s="3">
+      <c r="C86" s="3">
         <v>1141610.8799999999</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G86" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>16</v>
@@ -5821,29 +5821,29 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="4">
         <v>55937</v>
       </c>
-      <c r="B87" s="3">
+      <c r="C87" s="3">
         <v>1227672</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G87" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>16</v>
@@ -5862,29 +5862,29 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="4">
         <v>55741</v>
       </c>
-      <c r="B88" s="3">
+      <c r="C88" s="3">
         <v>1302106.8</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G88" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>16</v>
@@ -5903,29 +5903,29 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="4">
         <v>55943</v>
       </c>
-      <c r="B89" s="3">
+      <c r="C89" s="3">
         <v>1639759.2</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>16</v>
@@ -5944,29 +5944,29 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="4">
         <v>55948</v>
       </c>
-      <c r="B90" s="3">
+      <c r="C90" s="3">
         <v>1879734.15</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>16</v>
@@ -5985,29 +5985,29 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="4">
         <v>55955</v>
       </c>
-      <c r="B91" s="3">
+      <c r="C91" s="3">
         <v>2617831.7200000002</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G91" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>16</v>
@@ -6026,29 +6026,29 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="4">
         <v>55956</v>
       </c>
-      <c r="B92" s="3">
+      <c r="C92" s="3">
         <v>2641915.2799999998</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>16</v>
@@ -6067,29 +6067,29 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="4">
         <v>55959</v>
       </c>
-      <c r="B93" s="3">
+      <c r="C93" s="3">
         <v>2825138.87</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G93" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>16</v>
@@ -6108,29 +6108,29 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="4">
         <v>55960</v>
       </c>
-      <c r="B94" s="3">
+      <c r="C94" s="3">
         <v>2850068.76</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G94" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>16</v>
@@ -6149,29 +6149,29 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="4">
         <v>55961</v>
       </c>
-      <c r="B95" s="3">
+      <c r="C95" s="3">
         <v>2954679.6</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G95" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>16</v>
@@ -6190,29 +6190,29 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="4">
         <v>55742</v>
       </c>
-      <c r="B96" s="3">
+      <c r="C96" s="3">
         <v>3094498.45</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G96" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>16</v>
@@ -6231,29 +6231,29 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="4">
         <v>55743</v>
       </c>
-      <c r="B97" s="3">
+      <c r="C97" s="3">
         <v>3176244.41</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>16</v>
@@ -6272,29 +6272,29 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="4">
         <v>55744</v>
       </c>
-      <c r="B98" s="3">
+      <c r="C98" s="3">
         <v>3633251.15</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G98" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>16</v>
@@ -6313,29 +6313,29 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="4">
         <v>55969</v>
       </c>
-      <c r="B99" s="3">
+      <c r="C99" s="3">
         <v>4000180.74</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G99" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>16</v>
@@ -6354,29 +6354,29 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="4">
         <v>55897</v>
       </c>
-      <c r="B100" s="3">
+      <c r="C100" s="3">
         <v>4071336.48</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G100" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>16</v>
@@ -6395,29 +6395,29 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="4">
         <v>55970</v>
       </c>
-      <c r="B101" s="3">
+      <c r="C101" s="3">
         <v>4146625.08</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G101" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>16</v>
@@ -6436,29 +6436,29 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="4">
         <v>55971</v>
       </c>
-      <c r="B102" s="3">
+      <c r="C102" s="3">
         <v>4176286.49</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>16</v>
@@ -6477,29 +6477,29 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="4">
         <v>55745</v>
       </c>
-      <c r="B103" s="3">
+      <c r="C103" s="3">
         <v>4455544.5</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G103" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>16</v>
@@ -6518,29 +6518,29 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="4">
         <v>55974</v>
       </c>
-      <c r="B104" s="3">
+      <c r="C104" s="3">
         <v>4621691.46</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>16</v>
@@ -6559,29 +6559,29 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="4">
         <v>55898</v>
       </c>
-      <c r="B105" s="3">
+      <c r="C105" s="3">
         <v>4853520</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>16</v>
@@ -6600,29 +6600,29 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+      <c r="A106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="4">
         <v>55978</v>
       </c>
-      <c r="B106" s="3">
+      <c r="C106" s="3">
         <v>5126259.32</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G106" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>16</v>
@@ -6641,29 +6641,29 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="4">
         <v>55899</v>
       </c>
-      <c r="B107" s="3">
+      <c r="C107" s="3">
         <v>5443987.6299999999</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G107" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>16</v>
@@ -6682,29 +6682,29 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+      <c r="A108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="4">
         <v>55746</v>
       </c>
-      <c r="B108" s="3">
+      <c r="C108" s="3">
         <v>5547900.4199999999</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G108" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>16</v>
@@ -6723,29 +6723,29 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="4">
         <v>55747</v>
       </c>
-      <c r="B109" s="3">
+      <c r="C109" s="3">
         <v>5626846.8200000003</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G109" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>16</v>
@@ -6764,29 +6764,29 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="A110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="4">
         <v>55900</v>
       </c>
-      <c r="B110" s="3">
+      <c r="C110" s="3">
         <v>5933676.8200000003</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G110" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>16</v>
@@ -6805,29 +6805,29 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="4">
         <v>55748</v>
       </c>
-      <c r="B111" s="3">
+      <c r="C111" s="3">
         <v>6138957.6100000003</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G111" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>16</v>
@@ -6846,29 +6846,29 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
+      <c r="A112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="4">
         <v>55749</v>
       </c>
-      <c r="B112" s="3">
+      <c r="C112" s="3">
         <v>6503061.5</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G112" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>16</v>
@@ -6887,29 +6887,29 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+      <c r="A113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="4">
         <v>55902</v>
       </c>
-      <c r="B113" s="3">
+      <c r="C113" s="3">
         <v>6671285.1699999999</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G113" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>16</v>
@@ -6928,29 +6928,29 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
+      <c r="A114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="4">
         <v>55906</v>
       </c>
-      <c r="B114" s="3">
+      <c r="C114" s="3">
         <v>9810654.4900000002</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G114" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H114" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>16</v>
@@ -6969,29 +6969,29 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+      <c r="A115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="4">
         <v>55907</v>
       </c>
-      <c r="B115" s="3">
+      <c r="C115" s="3">
         <v>9865561.9700000007</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G115" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>16</v>
@@ -7010,29 +7010,29 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+      <c r="A116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="4">
         <v>55750</v>
       </c>
-      <c r="B116" s="3">
+      <c r="C116" s="3">
         <v>10526913.050000001</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G116" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H116" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>16</v>
@@ -7051,29 +7051,29 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="4">
         <v>55910</v>
       </c>
-      <c r="B117" s="3">
+      <c r="C117" s="3">
         <v>10692447.4</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G117" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H117" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>16</v>
@@ -7092,29 +7092,29 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
+      <c r="A118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="4">
         <v>55911</v>
       </c>
-      <c r="B118" s="3">
+      <c r="C118" s="3">
         <v>11909886</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G118" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>16</v>
@@ -7133,29 +7133,29 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+      <c r="A119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="4">
         <v>55913</v>
       </c>
-      <c r="B119" s="3">
+      <c r="C119" s="3">
         <v>13042597.18</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G119" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>16</v>
@@ -7174,29 +7174,29 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
+      <c r="A120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="4">
         <v>55914</v>
       </c>
-      <c r="B120" s="3">
+      <c r="C120" s="3">
         <v>13507159.359999999</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G120" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>16</v>
@@ -7215,29 +7215,29 @@
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
+      <c r="A121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="4">
         <v>55916</v>
       </c>
-      <c r="B121" s="3">
+      <c r="C121" s="3">
         <v>16213684.23</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G121" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>16</v>
@@ -7256,29 +7256,29 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
+      <c r="A122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="4">
         <v>55917</v>
       </c>
-      <c r="B122" s="3">
+      <c r="C122" s="3">
         <v>16644895.35</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G122" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H122" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>16</v>
@@ -7297,29 +7297,29 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
+      <c r="A123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="4">
         <v>55920</v>
       </c>
-      <c r="B123" s="3">
+      <c r="C123" s="3">
         <v>19584566.399999999</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G123" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>16</v>
@@ -7338,29 +7338,29 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+      <c r="A124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="4">
         <v>55925</v>
       </c>
-      <c r="B124" s="3">
+      <c r="C124" s="3">
         <v>27122779.620000001</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G124" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>16</v>
@@ -7379,29 +7379,29 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="A125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="4">
         <v>55926</v>
       </c>
-      <c r="B125" s="3">
+      <c r="C125" s="3">
         <v>28800137.190000001</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G125" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>16</v>
@@ -7420,29 +7420,29 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+      <c r="A126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="4">
         <v>55928</v>
       </c>
-      <c r="B126" s="3">
+      <c r="C126" s="3">
         <v>34317166</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G126" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H126" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>16</v>
@@ -7461,29 +7461,29 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="A127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="4">
         <v>55930</v>
       </c>
-      <c r="B127" s="3">
+      <c r="C127" s="3">
         <v>40138863.399999999</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G127" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H127" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>16</v>
@@ -7502,29 +7502,29 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
+      <c r="A128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="4">
         <v>55931</v>
       </c>
-      <c r="B128" s="3">
+      <c r="C128" s="3">
         <v>58126902.600000001</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G128" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H128" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>16</v>
@@ -7543,29 +7543,29 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="A129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="4">
         <v>55932</v>
       </c>
-      <c r="B129" s="3">
+      <c r="C129" s="3">
         <v>81584531.329999998</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G129" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H129" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>16</v>
@@ -7584,29 +7584,29 @@
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
+      <c r="A130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="4">
         <v>55933</v>
       </c>
-      <c r="B130" s="3">
+      <c r="C130" s="3">
         <v>106743943.81999999</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H130" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>16</v>
@@ -7625,29 +7625,29 @@
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+      <c r="A131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="4">
         <v>55844</v>
       </c>
-      <c r="B131" s="5">
+      <c r="C131" s="5">
         <v>760.08</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G131" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H131" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>16</v>
@@ -7666,29 +7666,29 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+      <c r="A132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="4">
         <v>55845</v>
       </c>
-      <c r="B132" s="5">
+      <c r="C132" s="5">
         <v>760.08</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G132" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H132" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>16</v>
@@ -7707,29 +7707,29 @@
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+      <c r="A133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="4">
         <v>55887</v>
       </c>
-      <c r="B133" s="3">
+      <c r="C133" s="3">
         <v>53884.72</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G133" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H133" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>16</v>
@@ -7748,29 +7748,29 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="A134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="4">
         <v>55938</v>
       </c>
-      <c r="B134" s="3">
+      <c r="C134" s="3">
         <v>1254554.48</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G134" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>16</v>
@@ -7789,29 +7789,29 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="A135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="4">
         <v>55952</v>
       </c>
-      <c r="B135" s="3">
+      <c r="C135" s="3">
         <v>2360509.2000000002</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G135" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H135" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>16</v>
@@ -7830,29 +7830,29 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
+      <c r="A136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="4">
         <v>55957</v>
       </c>
-      <c r="B136" s="6">
+      <c r="C136" s="6">
         <v>2643441.11</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="F136" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G136" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H136" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>16</v>
@@ -7871,29 +7871,29 @@
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+      <c r="A137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="4">
         <v>55963</v>
       </c>
-      <c r="B137" s="3">
+      <c r="C137" s="3">
         <v>3000587.29</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G137" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H137" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>16</v>
@@ -7912,29 +7912,29 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
+      <c r="A138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="4">
         <v>55966</v>
       </c>
-      <c r="B138" s="3">
+      <c r="C138" s="3">
         <v>3486786.9</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="E138" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G138" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>16</v>
@@ -7953,29 +7953,29 @@
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+      <c r="A139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="4">
         <v>55967</v>
       </c>
-      <c r="B139" s="3">
+      <c r="C139" s="3">
         <v>3601070.4</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G139" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H139" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>16</v>
@@ -7994,29 +7994,29 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
+      <c r="A140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="4">
         <v>55972</v>
       </c>
-      <c r="B140" s="3">
+      <c r="C140" s="3">
         <v>4202884.8</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G140" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H140" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>16</v>
@@ -8035,29 +8035,29 @@
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
+      <c r="A141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="4">
         <v>55901</v>
       </c>
-      <c r="B141" s="3">
+      <c r="C141" s="3">
         <v>6611074.4800000004</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G141" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H141" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>16</v>
@@ -8076,29 +8076,29 @@
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
+      <c r="A142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="4">
         <v>55903</v>
       </c>
-      <c r="B142" s="3">
+      <c r="C142" s="3">
         <v>7176000</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="E142" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G142" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H142" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>16</v>
@@ -8117,29 +8117,29 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
+      <c r="A143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="4">
         <v>55922</v>
       </c>
-      <c r="B143" s="6">
+      <c r="C143" s="6">
         <v>20255718.129999999</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G143" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>16</v>
@@ -8158,29 +8158,29 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
+      <c r="A144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="4">
         <v>55924</v>
       </c>
-      <c r="B144" s="6">
+      <c r="C144" s="6">
         <v>26996148.280000001</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G144" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H144" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>16</v>
@@ -8199,29 +8199,29 @@
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
+      <c r="A145" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="4">
         <v>55927</v>
       </c>
-      <c r="B145" s="6">
+      <c r="C145" s="6">
         <v>31534360.899999999</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G145" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>16</v>
@@ -8240,29 +8240,29 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
+      <c r="A146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="4">
         <v>55904</v>
       </c>
-      <c r="B146" s="3">
+      <c r="C146" s="3">
         <v>7491390.0199999996</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="F146" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G146" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H146" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>16</v>
@@ -8281,29 +8281,29 @@
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
+      <c r="A147" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="4">
         <v>55935</v>
       </c>
-      <c r="B147" s="3">
+      <c r="C147" s="3">
         <v>1109448.8600000001</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G147" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H147" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>16</v>
@@ -8322,29 +8322,29 @@
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
+      <c r="A148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="4">
         <v>55941</v>
       </c>
-      <c r="B148" s="3">
+      <c r="C148" s="3">
         <v>1553745.93</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G148" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>16</v>
@@ -8363,29 +8363,29 @@
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
+      <c r="A149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="4">
         <v>55944</v>
       </c>
-      <c r="B149" s="3">
+      <c r="C149" s="3">
         <v>1743607</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G149" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>16</v>
@@ -8404,29 +8404,29 @@
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="A150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="4">
         <v>55946</v>
       </c>
-      <c r="B150" s="3">
+      <c r="C150" s="3">
         <v>1852651.66</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G150" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>16</v>
@@ -8445,29 +8445,29 @@
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
+      <c r="A151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="4">
         <v>55950</v>
       </c>
-      <c r="B151" s="3">
+      <c r="C151" s="3">
         <v>2000000</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G151" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H151" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>16</v>
@@ -8486,29 +8486,29 @@
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="4">
+      <c r="A152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="4">
         <v>55954</v>
       </c>
-      <c r="B152" s="3">
+      <c r="C152" s="3">
         <v>2604800</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G152" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>16</v>
@@ -8527,29 +8527,29 @@
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
+      <c r="A153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="4">
         <v>55958</v>
       </c>
-      <c r="B153" s="3">
+      <c r="C153" s="3">
         <v>2710861.86</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G153" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>16</v>
@@ -8568,29 +8568,29 @@
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="4">
+      <c r="A154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="4">
         <v>55968</v>
       </c>
-      <c r="B154" s="3">
+      <c r="C154" s="3">
         <v>3718418.67</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G154" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>16</v>
@@ -8609,29 +8609,29 @@
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
+      <c r="A155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="4">
         <v>55977</v>
       </c>
-      <c r="B155" s="3">
+      <c r="C155" s="3">
         <v>5000000</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="E155" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G155" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>16</v>
@@ -8650,29 +8650,29 @@
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
+      <c r="A156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="4">
         <v>55908</v>
       </c>
-      <c r="B156" s="6">
+      <c r="C156" s="6">
         <v>10000000</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G156" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H156" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>16</v>
@@ -8691,29 +8691,29 @@
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
+      <c r="A157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="4">
         <v>55909</v>
       </c>
-      <c r="B157" s="6">
+      <c r="C157" s="6">
         <v>10000000</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G157" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H157" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>16</v>
@@ -8732,29 +8732,29 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
+      <c r="A158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="4">
         <v>55912</v>
       </c>
-      <c r="B158" s="3">
+      <c r="C158" s="3">
         <v>12481267.84</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="F158" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G158" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>16</v>
@@ -8773,29 +8773,29 @@
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="4">
+      <c r="A159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="4">
         <v>55921</v>
       </c>
-      <c r="B159" s="6">
+      <c r="C159" s="6">
         <v>20000000</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="D159" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G159" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H159" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>16</v>
@@ -8814,29 +8814,29 @@
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="4">
+      <c r="A160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="4">
         <v>55929</v>
       </c>
-      <c r="B160" s="3">
+      <c r="C160" s="3">
         <v>36550000</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G160" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H160" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>16</v>
@@ -8855,29 +8855,29 @@
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="4">
+      <c r="A161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="4">
         <v>55885</v>
       </c>
-      <c r="B161" s="3">
+      <c r="C161" s="3">
         <v>12876.29</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="D161" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G161" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H161" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>16</v>
@@ -8896,29 +8896,29 @@
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
+      <c r="A162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="4">
         <v>55886</v>
       </c>
-      <c r="B162" s="3">
+      <c r="C162" s="3">
         <v>40778.74</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G162" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H162" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>16</v>
@@ -8937,29 +8937,29 @@
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
+      <c r="A163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="4">
         <v>55888</v>
       </c>
-      <c r="B163" s="3">
+      <c r="C163" s="3">
         <v>73205.58</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G163" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H163" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>16</v>
@@ -8978,29 +8978,29 @@
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="4">
+      <c r="A164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="4">
         <v>55889</v>
       </c>
-      <c r="B164" s="3">
+      <c r="C164" s="3">
         <v>86796.26</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="D164" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="F164" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F164" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G164" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H164" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>16</v>
@@ -9019,29 +9019,29 @@
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
+      <c r="A165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="4">
         <v>55890</v>
       </c>
-      <c r="B165" s="3">
+      <c r="C165" s="3">
         <v>87608.62</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G165" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H165" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>16</v>
@@ -9060,29 +9060,29 @@
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
+      <c r="A166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="4">
         <v>55891</v>
       </c>
-      <c r="B166" s="3">
+      <c r="C166" s="3">
         <v>96470.1</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="F166" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G166" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>16</v>
@@ -9101,29 +9101,29 @@
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
+      <c r="A167" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="4">
         <v>55892</v>
       </c>
-      <c r="B167" s="3">
+      <c r="C167" s="3">
         <v>112014.6</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="F167" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G167" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H167" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>16</v>
@@ -9142,29 +9142,29 @@
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
+      <c r="A168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="4">
         <v>55893</v>
       </c>
-      <c r="B168" s="3">
+      <c r="C168" s="3">
         <v>114157.98</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="E168" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="F168" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G168" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H168" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>16</v>
@@ -9183,29 +9183,29 @@
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
+      <c r="A169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="4">
         <v>55894</v>
       </c>
-      <c r="B169" s="3">
+      <c r="C169" s="3">
         <v>130519.41</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="E169" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="F169" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F169" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G169" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H169" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>16</v>
@@ -9224,29 +9224,29 @@
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
+      <c r="A170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="4">
         <v>55895</v>
       </c>
-      <c r="B170" s="3">
+      <c r="C170" s="3">
         <v>194509.85</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="E170" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G170" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H170" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>16</v>
@@ -9265,29 +9265,29 @@
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
+      <c r="A171" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="4">
         <v>55896</v>
       </c>
-      <c r="B171" s="3">
+      <c r="C171" s="3">
         <v>212128.43</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="E171" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="F171" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F171" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G171" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H171" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>16</v>
@@ -9306,29 +9306,29 @@
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
+      <c r="A172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="4">
         <v>55965</v>
       </c>
-      <c r="B172" s="3">
+      <c r="C172" s="3">
         <v>3424008</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="E172" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F172" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G172" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H172" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I172" s="2" t="s">
         <v>16</v>
@@ -9347,29 +9347,29 @@
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="4">
+      <c r="A173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="4">
         <v>55801</v>
       </c>
-      <c r="B173" s="3">
+      <c r="C173" s="3">
         <v>2394.96</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="E173" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="F173" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F173" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G173" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H173" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>16</v>
@@ -9388,29 +9388,29 @@
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
+      <c r="A174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="4">
         <v>55852</v>
       </c>
-      <c r="B174" s="3">
+      <c r="C174" s="3">
         <v>9456.48</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G174" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H174" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>16</v>
@@ -9429,29 +9429,29 @@
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="4">
+      <c r="A175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B175" s="4">
         <v>55802</v>
       </c>
-      <c r="B175" s="3">
+      <c r="C175" s="3">
         <v>17061.34</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F175" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G175" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H175" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>16</v>
@@ -9470,29 +9470,29 @@
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
+      <c r="A176" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="4">
         <v>55803</v>
       </c>
-      <c r="B176" s="3">
+      <c r="C176" s="3">
         <v>18592.2</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="E176" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="F176" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G176" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H176" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>16</v>
@@ -9511,29 +9511,29 @@
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
+      <c r="A177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B177" s="4">
         <v>55805</v>
       </c>
-      <c r="B177" s="3">
+      <c r="C177" s="3">
         <v>18598.939999999999</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="F177" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G177" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H177" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I177" s="2" t="s">
         <v>16</v>
@@ -9552,29 +9552,29 @@
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
+      <c r="A178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="4">
         <v>55804</v>
       </c>
-      <c r="B178" s="3">
+      <c r="C178" s="3">
         <v>18598.939999999999</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="F178" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G178" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H178" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I178" s="2" t="s">
         <v>16</v>
@@ -9593,29 +9593,29 @@
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
+      <c r="A179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="4">
         <v>55806</v>
       </c>
-      <c r="B179" s="3">
+      <c r="C179" s="3">
         <v>21113.4</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="E179" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="F179" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G179" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I179" s="2" t="s">
         <v>16</v>
@@ -9634,29 +9634,29 @@
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
+      <c r="A180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="4">
         <v>55807</v>
       </c>
-      <c r="B180" s="3">
+      <c r="C180" s="3">
         <v>21680.06</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G180" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H180" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I180" s="2" t="s">
         <v>16</v>
@@ -9675,29 +9675,29 @@
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="4">
+      <c r="A181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="4">
         <v>55808</v>
       </c>
-      <c r="B181" s="3">
+      <c r="C181" s="3">
         <v>23949.599999999999</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="E181" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="F181" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G181" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H181" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>16</v>
@@ -9716,29 +9716,29 @@
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="4">
+      <c r="A182" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="4">
         <v>55809</v>
       </c>
-      <c r="B182" s="3">
+      <c r="C182" s="3">
         <v>26344.560000000001</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="E182" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="F182" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G182" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H182" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>16</v>
@@ -9757,29 +9757,29 @@
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="4">
+      <c r="A183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" s="4">
         <v>55810</v>
       </c>
-      <c r="B183" s="3">
+      <c r="C183" s="3">
         <v>29820.1</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="E183" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="F183" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G183" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H183" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>16</v>
@@ -9798,29 +9798,29 @@
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
+      <c r="A184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="4">
         <v>55811</v>
       </c>
-      <c r="B184" s="3">
+      <c r="C184" s="3">
         <v>35644.080000000002</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="F184" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F184" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G184" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H184" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>16</v>
@@ -9839,29 +9839,29 @@
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
+      <c r="A185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="4">
         <v>55812</v>
       </c>
-      <c r="B185" s="3">
+      <c r="C185" s="3">
         <v>41847.620000000003</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="F185" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F185" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G185" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H185" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>16</v>
@@ -9880,29 +9880,29 @@
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
+      <c r="A186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="4">
         <v>55813</v>
       </c>
-      <c r="B186" s="3">
+      <c r="C186" s="3">
         <v>43109.279999999999</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="F186" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F186" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G186" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H186" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>16</v>
@@ -9921,29 +9921,29 @@
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
+      <c r="A187" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" s="4">
         <v>55814</v>
       </c>
-      <c r="B187" s="3">
+      <c r="C187" s="3">
         <v>52689.120000000003</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="F187" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F187" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G187" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H187" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>16</v>
@@ -9962,29 +9962,29 @@
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
+      <c r="A188" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" s="4">
         <v>55815</v>
       </c>
-      <c r="B188" s="3">
+      <c r="C188" s="3">
         <v>64663.92</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="F188" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F188" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G188" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H188" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>16</v>
@@ -10003,29 +10003,29 @@
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="4">
+      <c r="A189" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="4">
         <v>55816</v>
       </c>
-      <c r="B189" s="3">
+      <c r="C189" s="3">
         <v>78500.399999999994</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="D189" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="F189" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F189" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G189" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H189" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I189" s="2" t="s">
         <v>16</v>
@@ -10044,29 +10044,29 @@
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="4">
+      <c r="A190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="4">
         <v>55817</v>
       </c>
-      <c r="B190" s="3">
+      <c r="C190" s="3">
         <v>81428.639999999999</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="F190" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F190" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G190" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H190" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>16</v>
@@ -10085,29 +10085,29 @@
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="4">
+      <c r="A191" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" s="4">
         <v>55818</v>
       </c>
-      <c r="B191" s="3">
+      <c r="C191" s="3">
         <v>88613.52</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="F191" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F191" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G191" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H191" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I191" s="2" t="s">
         <v>16</v>
@@ -10126,29 +10126,29 @@
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="4">
+      <c r="A192" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="4">
         <v>55819</v>
       </c>
-      <c r="B192" s="3">
+      <c r="C192" s="3">
         <v>94718.37</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="E192" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="F192" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G192" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H192" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I192" s="2" t="s">
         <v>16</v>
@@ -10167,29 +10167,29 @@
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="4">
+      <c r="A193" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" s="4">
         <v>55820</v>
       </c>
-      <c r="B193" s="3">
+      <c r="C193" s="3">
         <v>119748</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="D193" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="E193" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="F193" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F193" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G193" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H193" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>16</v>
@@ -10208,29 +10208,29 @@
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
+      <c r="A194" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="4">
         <v>55821</v>
       </c>
-      <c r="B194" s="3">
+      <c r="C194" s="3">
         <v>138429.91</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="E194" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="F194" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F194" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G194" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H194" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I194" s="2" t="s">
         <v>16</v>
@@ -10249,29 +10249,29 @@
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" s="4">
+      <c r="A195" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="4">
         <v>55822</v>
       </c>
-      <c r="B195" s="3">
+      <c r="C195" s="3">
         <v>138907.68</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="D195" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="E195" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="F195" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G195" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H195" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I195" s="2" t="s">
         <v>16</v>
@@ -10290,29 +10290,29 @@
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="4">
+      <c r="A196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" s="4">
         <v>55823</v>
       </c>
-      <c r="B196" s="3">
+      <c r="C196" s="3">
         <v>153277.44</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="D196" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="E196" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="F196" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F196" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G196" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H196" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I196" s="2" t="s">
         <v>16</v>
@@ -10331,29 +10331,29 @@
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197" s="4">
+      <c r="A197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="4">
         <v>55824</v>
       </c>
-      <c r="B197" s="3">
+      <c r="C197" s="3">
         <v>153441.29</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="D197" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="E197" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="F197" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F197" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G197" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H197" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H197" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I197" s="2" t="s">
         <v>16</v>
@@ -10372,29 +10372,29 @@
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198" s="4">
+      <c r="A198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="4">
         <v>55825</v>
       </c>
-      <c r="B198" s="3">
+      <c r="C198" s="3">
         <v>156833.95000000001</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="E198" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="F198" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G198" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H198" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I198" s="2" t="s">
         <v>16</v>
@@ -10413,29 +10413,29 @@
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" s="4">
+      <c r="A199" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="4">
         <v>55826</v>
       </c>
-      <c r="B199" s="3">
+      <c r="C199" s="3">
         <v>160462.32</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="D199" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="E199" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="F199" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G199" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H199" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I199" s="2" t="s">
         <v>16</v>
@@ -10454,29 +10454,29 @@
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="4">
+      <c r="A200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="4">
         <v>55865</v>
       </c>
-      <c r="B200" s="3">
+      <c r="C200" s="3">
         <v>208291.12</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="D200" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="E200" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="F200" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G200" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H200" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I200" s="2" t="s">
         <v>16</v>
@@ -10495,29 +10495,29 @@
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201" s="4">
+      <c r="A201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="4">
         <v>55827</v>
       </c>
-      <c r="B201" s="3">
+      <c r="C201" s="3">
         <v>208655.49</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="D201" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="E201" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="F201" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G201" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H201" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>16</v>
@@ -10536,29 +10536,29 @@
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" s="4">
+      <c r="A202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" s="4">
         <v>55828</v>
       </c>
-      <c r="B202" s="3">
+      <c r="C202" s="3">
         <v>272112.53999999998</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="D202" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="E202" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="F202" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F202" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G202" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H202" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>16</v>
@@ -10577,29 +10577,29 @@
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203" s="4">
+      <c r="A203" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="4">
         <v>55829</v>
       </c>
-      <c r="B203" s="3">
+      <c r="C203" s="3">
         <v>374999.93</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="D203" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="E203" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="F203" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G203" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H203" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I203" s="2" t="s">
         <v>16</v>
@@ -10618,29 +10618,29 @@
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" s="4">
+      <c r="A204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="4">
         <v>55830</v>
       </c>
-      <c r="B204" s="3">
+      <c r="C204" s="3">
         <v>422036.4</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="D204" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="E204" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="F204" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F204" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G204" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H204" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>16</v>
@@ -10659,29 +10659,29 @@
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205" s="4">
+      <c r="A205" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="4">
         <v>55831</v>
       </c>
-      <c r="B205" s="3">
+      <c r="C205" s="3">
         <v>465928.8</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="D205" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="E205" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="F205" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F205" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G205" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H205" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I205" s="2" t="s">
         <v>16</v>
@@ -10700,29 +10700,29 @@
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" s="4">
+      <c r="A206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" s="4">
         <v>55832</v>
       </c>
-      <c r="B206" s="3">
+      <c r="C206" s="3">
         <v>530614.68000000005</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="D206" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="E206" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="F206" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G206" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H206" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>16</v>
@@ -10741,29 +10741,29 @@
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207" s="4">
+      <c r="A207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" s="4">
         <v>55833</v>
       </c>
-      <c r="B207" s="3">
+      <c r="C207" s="3">
         <v>749509.2</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="D207" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="E207" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="F207" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F207" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G207" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H207" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I207" s="2" t="s">
         <v>16</v>
@@ -10782,29 +10782,29 @@
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" s="4">
+      <c r="A208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" s="4">
         <v>55834</v>
       </c>
-      <c r="B208" s="3">
+      <c r="C208" s="3">
         <v>890069.82</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="D208" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="E208" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="F208" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F208" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G208" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H208" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I208" s="2" t="s">
         <v>16</v>
@@ -10823,29 +10823,29 @@
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="4">
+      <c r="A209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="4">
         <v>55835</v>
       </c>
-      <c r="B209" s="3">
+      <c r="C209" s="3">
         <v>1068275.28</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="D209" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="E209" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="F209" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F209" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G209" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H209" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I209" s="2" t="s">
         <v>16</v>
@@ -10864,29 +10864,29 @@
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="4">
+      <c r="A210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="4">
         <v>55836</v>
       </c>
-      <c r="B210" s="3">
+      <c r="C210" s="3">
         <v>1236788.3999999999</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="E210" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="F210" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F210" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G210" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H210" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I210" s="2" t="s">
         <v>16</v>
@@ -10905,29 +10905,29 @@
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="4">
+      <c r="A211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="4">
         <v>55940</v>
       </c>
-      <c r="B211" s="3">
+      <c r="C211" s="3">
         <v>1483170.66</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="E211" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="F211" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F211" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G211" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H211" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H211" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>16</v>
@@ -10946,29 +10946,29 @@
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="4">
+      <c r="A212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="4">
         <v>55942</v>
       </c>
-      <c r="B212" s="3">
+      <c r="C212" s="3">
         <v>1627151.26</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="D212" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="E212" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="F212" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F212" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G212" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H212" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I212" s="2" t="s">
         <v>16</v>
@@ -10987,29 +10987,29 @@
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="4">
+      <c r="A213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="4">
         <v>55945</v>
       </c>
-      <c r="B213" s="3">
+      <c r="C213" s="3">
         <v>1802829.96</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="D213" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="E213" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="F213" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F213" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G213" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H213" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H213" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I213" s="2" t="s">
         <v>16</v>
@@ -11028,29 +11028,29 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="4">
+      <c r="A214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="4">
         <v>55947</v>
       </c>
-      <c r="B214" s="3">
+      <c r="C214" s="3">
         <v>1873626.93</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="D214" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="E214" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="F214" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F214" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G214" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H214" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I214" s="2" t="s">
         <v>16</v>
@@ -11069,29 +11069,29 @@
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="4">
+      <c r="A215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="4">
         <v>55949</v>
       </c>
-      <c r="B215" s="3">
+      <c r="C215" s="3">
         <v>1940217.6</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="D215" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="E215" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="F215" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F215" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G215" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H215" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I215" s="2" t="s">
         <v>16</v>
@@ -11110,29 +11110,29 @@
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="4">
+      <c r="A216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="4">
         <v>55951</v>
       </c>
-      <c r="B216" s="3">
+      <c r="C216" s="3">
         <v>2212802.4</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="D216" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="E216" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="F216" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F216" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G216" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H216" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I216" s="2" t="s">
         <v>16</v>
@@ -11151,29 +11151,29 @@
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="4">
+      <c r="A217" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="4">
         <v>55953</v>
       </c>
-      <c r="B217" s="3">
+      <c r="C217" s="3">
         <v>2410006.67</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="E217" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="F217" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="F217" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G217" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H217" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I217" s="2" t="s">
         <v>16</v>
@@ -11192,29 +11192,29 @@
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="4">
+      <c r="A218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="4">
         <v>55837</v>
       </c>
-      <c r="B218" s="3">
+      <c r="C218" s="3">
         <v>2497636.7999999998</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="E218" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="F218" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F218" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G218" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H218" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I218" s="2" t="s">
         <v>16</v>
@@ -11233,29 +11233,29 @@
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
+      <c r="A219" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="4">
         <v>55838</v>
       </c>
-      <c r="B219" s="3">
+      <c r="C219" s="3">
         <v>2679438.5299999998</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="D219" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="E219" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="F219" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F219" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G219" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H219" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I219" s="2" t="s">
         <v>16</v>
@@ -11274,29 +11274,29 @@
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="4">
+      <c r="A220" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" s="4">
         <v>55839</v>
       </c>
-      <c r="B220" s="3">
+      <c r="C220" s="3">
         <v>3201761.2</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="D220" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="E220" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="F220" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F220" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G220" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H220" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>16</v>
@@ -11315,29 +11315,29 @@
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="4">
+      <c r="A221" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="4">
         <v>55840</v>
       </c>
-      <c r="B221" s="3">
+      <c r="C221" s="3">
         <v>3638116.19</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="D221" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="E221" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="F221" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F221" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G221" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H221" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>16</v>
@@ -11356,29 +11356,29 @@
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="4">
+      <c r="A222" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="4">
         <v>55973</v>
       </c>
-      <c r="B222" s="3">
+      <c r="C222" s="3">
         <v>4362377.76</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="D222" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="E222" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="F222" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="F222" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G222" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H222" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I222" s="2" t="s">
         <v>16</v>
@@ -11397,29 +11397,29 @@
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="4">
+      <c r="A223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="4">
         <v>55975</v>
       </c>
-      <c r="B223" s="3">
+      <c r="C223" s="3">
         <v>4812937.2</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="D223" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="F223" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F223" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G223" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H223" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H223" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>16</v>
@@ -11438,29 +11438,29 @@
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="4">
+      <c r="A224" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" s="4">
         <v>55976</v>
       </c>
-      <c r="B224" s="3">
+      <c r="C224" s="3">
         <v>4831403.29</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="D224" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="E224" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="F224" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="F224" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G224" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H224" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H224" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>16</v>
@@ -11479,29 +11479,29 @@
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225" s="4">
+      <c r="A225" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" s="4">
         <v>55841</v>
       </c>
-      <c r="B225" s="3">
+      <c r="C225" s="3">
         <v>4959216.72</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="D225" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="E225" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="F225" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F225" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G225" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H225" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H225" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I225" s="2" t="s">
         <v>16</v>
@@ -11520,29 +11520,29 @@
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" s="4">
+      <c r="A226" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" s="4">
         <v>55979</v>
       </c>
-      <c r="B226" s="3">
+      <c r="C226" s="3">
         <v>5296511.95</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="D226" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="E226" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="F226" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F226" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G226" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H226" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I226" s="2" t="s">
         <v>16</v>
@@ -11561,29 +11561,29 @@
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227" s="4">
+      <c r="A227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="4">
         <v>55842</v>
       </c>
-      <c r="B227" s="3">
+      <c r="C227" s="3">
         <v>6535566.8200000003</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="D227" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="E227" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="F227" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F227" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G227" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H227" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I227" s="2" t="s">
         <v>16</v>
@@ -11602,29 +11602,29 @@
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" s="4">
+      <c r="A228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="4">
         <v>55905</v>
       </c>
-      <c r="B228" s="3">
+      <c r="C228" s="3">
         <v>7666912.7999999998</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="D228" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="E228" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="F228" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="F228" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G228" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H228" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>16</v>
@@ -11643,29 +11643,29 @@
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229" s="4">
+      <c r="A229" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" s="4">
         <v>55915</v>
       </c>
-      <c r="B229" s="3">
+      <c r="C229" s="3">
         <v>16078844.800000001</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="D229" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="E229" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="F229" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="F229" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G229" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H229" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H229" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I229" s="2" t="s">
         <v>16</v>
@@ -11684,29 +11684,29 @@
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" s="4">
+      <c r="A230" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="4">
         <v>55918</v>
       </c>
-      <c r="B230" s="3">
+      <c r="C230" s="3">
         <v>17056006.260000002</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="D230" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="E230" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="F230" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="F230" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G230" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H230" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H230" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I230" s="2" t="s">
         <v>16</v>
@@ -11725,29 +11725,29 @@
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231" s="4">
+      <c r="A231" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="4">
         <v>55919</v>
       </c>
-      <c r="B231" s="3">
+      <c r="C231" s="3">
         <v>18239470.41</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="D231" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="E231" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="F231" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="F231" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G231" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H231" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I231" s="2" t="s">
         <v>16</v>
@@ -11766,29 +11766,29 @@
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" s="4">
+      <c r="A232" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" s="4">
         <v>55923</v>
       </c>
-      <c r="B232" s="3">
+      <c r="C232" s="3">
         <v>25931880</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="D232" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="E232" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="F232" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="F232" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G232" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H232" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H232" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="I232" s="2" t="s">
         <v>16</v>
